--- a/books_python.xlsx
+++ b/books_python.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Книги" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Книги" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C314"/>
+  <dimension ref="A1:C322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,68 +555,68 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Справочник PYTHON. Кратко, быстро, под рукой</t>
+          <t>Python глазами хакера</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Д. Кольцов</t>
+          <t>М. Бруцкий-Стемпковский</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>324</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Python для детей и родителей. Играй и программируй</t>
+          <t>Python: быстрый старт</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Брайсон Пэйн</t>
+          <t>Ду Чан</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1057</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Python: быстрый старт</t>
+          <t>Python - это просто. Пошаговое руководство по программированию и анализу данных</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ду Чан</t>
+          <t>Нилаб Нисчал</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>1149</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Python - это просто. Пошаговое руководство по программированию и анализу данных</t>
+          <t>Python для детей и родителей. Играй и программируй</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Нилаб Нисчал</t>
+          <t>Брайсон Пэйн</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>1379</t>
         </is>
       </c>
     </row>
@@ -640,199 +640,199 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Python для начинающих. Лучшие задачи для изучения языка программирования</t>
+          <t>Python для юных программистов</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Паскаль Лафуркад, Малика Мор</t>
+          <t>Денис Голиков</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>1011</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Python: быстрый старт</t>
+          <t>Справочник PYTHON. Кратко, быстро, под рукой</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ду Чан</t>
+          <t>Д. Кольцов</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>735</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Python для Excel. Современная среда для автоматизации и анализа данных</t>
+          <t>Python для финансистов</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Феликс Зумштейн</t>
+          <t>Ив Хилпиш</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>1931</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Python для юных программистов</t>
+          <t>Python для Excel. Современная среда для автоматизации и анализа данных</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Денис Голиков</t>
+          <t>Феликс Зумштейн</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1241</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Python-интенсив: 50 быстрых упражнений</t>
+          <t>Python. Как стать профессионалом</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Реувен Лернер</t>
+          <t>Дуг Фаррелл</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1149</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Python для финансистов</t>
+          <t>Python. Создай свою первую игру с нуля! Самоучитель в примерах</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ив Хилпиш</t>
+          <t>Джесс Вейхлер, Сет Кенлон</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>735</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Python для хакеров. Нетривиальные задачи и проекты</t>
+          <t>Python на примерах. Практика, практика и только практика</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ли Воган</t>
+          <t>Д. Кольцов</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>781</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Python. Как стать профессионалом</t>
+          <t>Python для хакеров. Нетривиальные задачи и проекты</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Дуг Фаррелл</t>
+          <t>Ли Воган</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>1839</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Python. Создай свою первую игру с нуля! Самоучитель в примерах</t>
+          <t>Python-интенсив: 50 быстрых упражнений</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Джесс Вейхлер, Сет Кенлон</t>
+          <t>Реувен Лернер</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>1011</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Python на примерах. Практика, практика и только практика</t>
+          <t>Python. Великое программирование в Minecraft</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Д. Кольцов</t>
+          <t>Андрей Корягин, Алиса Корягина</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>965</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Python. Великое программирование в Minecraft</t>
+          <t>Python на примерах. Практика, практика и только практика</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Андрей Корягин, Алиса Корягина</t>
+          <t>Д. Кольцов</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>501</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Нейросети на Python. Основы ИИ и машинного обучения</t>
+          <t>Python для начинающих. Лучшие задачи для изучения языка программирования</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>И. Куликова</t>
+          <t>Паскаль Лафуркад, Малика Мор</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -861,153 +861,153 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Python. Основы программирования</t>
+          <t>Нейросети на Python. Основы ИИ и машинного обучения</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Бончо Вальков, Светлин Наков, Венцислав Петров</t>
+          <t>И. Куликова</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1057</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Python. 12 уроков для начинающих</t>
+          <t>Python. Основы программирования</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Павел Добряк</t>
+          <t>Бончо Вальков, Светлин Наков, Венцислав Петров</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>1195</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Python для учебы и работы. Как освоить самый мощный язык программирования для будущей карьеры</t>
+          <t>Python. Великое программирование в Minecraft</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Михаэль Вайгенд</t>
+          <t>Андрей Корягин, Алиса Корягина</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1149</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Python. Великое программирование в Minecraft</t>
+          <t>Python. 12 уроков для начинающих</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Андрей Корягин, Алиса Корягина</t>
+          <t>Павел Добряк</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>809</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Python 3. Самое необходимое. 2-е издание, переработанное и дополненное</t>
+          <t>Python. Погружение в математику с Minecraft</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Николай Прохоренок</t>
+          <t>Андрей Корягин, Алиса Корягина</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>1149</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Python за 7 дней. Краткий курс для начинающих</t>
+          <t>Python для учебы и работы. Как освоить самый мощный язык программирования для будущей карьеры</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Эндрю Парк</t>
+          <t>Михаэль Вайгенд</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1655</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Python. Создаем программы и игры</t>
+          <t>Python, например</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Д. Кольцов</t>
+          <t>Никола Лейси</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>1471</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Python. Погружение в математику с Minecraft</t>
+          <t>Python для детей. Курс для начинающих</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Андрей Корягин, Алиса Корягина</t>
+          <t>Александр Банкрашков</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>827</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Python, например</t>
+          <t>Python 3. Самое необходимое. 2-е издание, переработанное и дополненное</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Никола Лейси</t>
+          <t>Николай Прохоренок</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>1241</t>
         </is>
       </c>
     </row>
@@ -1031,17 +1031,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Python 3. Самое необходимое. 2-е издание, переработанное и дополненное</t>
+          <t>Python. Создаем программы и игры</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Николай Прохоренок</t>
+          <t>Д. Кольцов</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>781</t>
         </is>
       </c>
     </row>
@@ -1065,323 +1065,323 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Python. Создаем программы и игры</t>
+          <t>Python за 7 дней. Краткий курс для начинающих</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Д. Кольцов</t>
+          <t>Эндрю Парк</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>1103</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Python для детей. Курс для начинающих</t>
+          <t>Python 3 и PyQt 5. Разработка приложений</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Александр Банкрашков</t>
+          <t>Николай Прохоренок</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>1655</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Python 3 и PyQt 6. Разработка приложений</t>
+          <t>Python. Красивые задачи для начинающих</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Владимир Дронов, Николай Прохоренок</t>
+          <t>Павел Добряк</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1149</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Python для гиков</t>
+          <t>Python 3 и PyQt 6. Разработка приложений</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Мухаммад Азиф</t>
+          <t>Владимир Дронов, Николай Прохоренок</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Python Создаем программы и игры</t>
+          <t>Python 3. Самое необходимое. 2-е издание, переработанное и дополненное</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Д. Кольцов</t>
+          <t>Николай Прохоренок</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>796</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Python 3 и PyQt 5. Разработка приложений</t>
+          <t>Python для гиков</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Николай Прохоренок</t>
+          <t>Мухаммад Азиф</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>826</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Python. Красивые задачи для начинающих</t>
+          <t>Python. Создаем программы и игры</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Павел Добряк</t>
+          <t>Д. Кольцов</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>501</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Python для детей, которые пока не программируют</t>
+          <t>Программирование на Python в примерах и задачах</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Елена Крылова</t>
+          <t>Алексей Васильев</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1471</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Python для начинающих: учимся программировать с помощью мини-игр и загадок</t>
+          <t>Python для детей, которые пока не программируют</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Кен Юэнс-Кларк</t>
+          <t>Елена Крылова</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2207</t>
+          <t>1103</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Python. Экспресс-курс. 3-е изд.</t>
+          <t>Python для начинающих: учимся программировать с помощью мини-игр и загадок</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Наоми Седер</t>
+          <t>Кен Юэнс-Кларк</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>2207</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Python. Погружение в математику с Minecraft</t>
+          <t>Python на примерах. Практический курс по программированию</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Андрей Корягин, Алиса Корягина</t>
+          <t>А.Н. Васильев</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>430</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Python. Лучшие практики и инструменты. 4-е изд.</t>
+          <t>Python. Экспресс-курс. 3-е изд.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Тарек Зиаде, Михал Яворски</t>
+          <t>Наоми Седер</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3771</t>
+          <t>1239</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Python для сетевых инженеров. Автоматизация сети, программирование и DevOps</t>
+          <t>Python Создаем программы и игры</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Эрик Чоу</t>
+          <t>Д. Кольцов</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>324</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Программирование на Python в примерах и задачах</t>
+          <t>Python. Погружение в математику с Minecraft</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Алексей Васильев</t>
+          <t>Андрей Корягин, Алиса Корягина</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1057</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Python. Исчерпывающее руководство</t>
+          <t>Python, Django и PyCharm для начинающих</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Дэвид Бизли</t>
+          <t>Анатолий Постолит</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>708</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Python. Чистый код для продолжающих</t>
+          <t>Python 3 и PyQt 5. Разработка приложений</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Эл Свейгарт</t>
+          <t>Николай Прохоренок</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>1062</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Python на примерах. Практический курс по программированию</t>
+          <t>Python. Исчерпывающее руководство</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>А.Н. Васильев</t>
+          <t>Дэвид Бизли</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>1103</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Python 3 и PyQt 5. Разработка приложений</t>
+          <t>Python. Чистый код для продолжающих</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Николай Прохоренок</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>2115</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Python для детей и родителей</t>
+          <t>Python без проблем: решаем реальные задачи и пишем полезный код</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Михаил Райтман</t>
+          <t>Даниэль Зингаро</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>1003</t>
         </is>
       </c>
     </row>
@@ -1405,153 +1405,153 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Python. Карманный справочник</t>
+          <t>Python для детей и родителей</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Марк Лутц</t>
+          <t>Михаил Райтман</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>708</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Python для сложных задач: наука о данных. 2-е издание</t>
+          <t>Python. Карманный справочник</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Дж. Вандер Плас</t>
+          <t>Марк Лутц</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>1103</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Python. Сборник упражнений. Введение в язык Python с задачами и решениями</t>
+          <t>Python. Лучшие практики и инструменты. 4-е изд.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Брайан Стивенсон</t>
+          <t>Тарек Зиаде, Михал Яворски</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>3771</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Python. Книга Рецептов</t>
+          <t>Python для сложных задач: наука о данных. 2-е издание</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Дэвид Бизли</t>
+          <t>Дж. Вандер Плас</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>2575</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Python на практике</t>
+          <t>Python. Сборник упражнений. Введение в язык Python с задачами и решениями</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Александр Киселев</t>
+          <t>Брайан Стивенсон</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>1471</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Python. К вершинам мастерства. Локаничное и эффективное программирование</t>
+          <t>Python на практике</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Лучано Рамальо</t>
+          <t>Александр Киселев</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5151</t>
+          <t>1062</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Python и DevOps: Ключ к автоматизации Linux</t>
+          <t>Python для сетевых инженеров. Автоматизация сети, программирование и DevOps</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ной Гифт</t>
+          <t>Эрик Чоу</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>3495</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Python 3 и PyQt 5 Разработка приложений (м) Прохоренок</t>
+          <t>Python и DevOps: Ключ к автоматизации Linux</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Ной Гифт</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>2575</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Программирование на Python в примерах и задачах</t>
+          <t>Python 3 и PyQt 5 Разработка приложений (м) Прохоренок</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Алексей Васильев</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>767</t>
         </is>
       </c>
     </row>
@@ -1609,204 +1609,204 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Программирование на Python с нуля. Учимся думать как программисты, осваиваем логику языка и пишем первый код!</t>
+          <t>Легкий способ выучить Python 3</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Патриша Фостер</t>
+          <t>Зед А. Шоу</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>933</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Простой Python. Современный стиль программирования. 2-е изд.</t>
+          <t>Программирование на Python с нуля. Учимся думать как программисты, осваиваем логику языка и пишем первый код!</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Билл Любанович</t>
+          <t>Патриша Фостер</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>1195</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Легкий способ выучить Python 3</t>
+          <t>Простой Python. Современный стиль программирования. 2-е изд.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Зед А. Шоу</t>
+          <t>Билл Любанович</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>2115</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Высокопроизводительные Python-приложения. Практическое руководство по эффективному программированию</t>
+          <t>Миссия: Python. Создаем игры вместе с детьми</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Миша Горелик</t>
+          <t>Шон Макманус</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>527</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Миссия: Python. Создаем игры вместе с детьми</t>
+          <t>Знакомьтесь, Python. Секреты профессии</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Шон Макманус</t>
+          <t>Евгений Павлов</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>855</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Знакомьтесь, Python. Секреты профессии</t>
+          <t>Высокопроизводительные Python-приложения. Практическое руководство по эффективному программированию</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Евгений Павлов</t>
+          <t>Миша Горелик</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>1839</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Программируем с детьми. Создайте 50 крутых игр на Python</t>
+          <t>Грокаем глубокое обучение</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Адриана Таке</t>
+          <t>Эндрю Траск</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1195</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Начнем.Python. Просто о сложном</t>
+          <t>Программируем с детьми. Создайте 50 крутых игр на Python</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>С. Иванов</t>
+          <t>Адриана Таке</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1655</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Легкий способ выучить Python 3 еще глубже</t>
+          <t>Начнем.Python. Просто о сложном</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Зед А. Шоу</t>
+          <t>С. Иванов</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>1011</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Грокаем глубокое обучение</t>
+          <t>Легкий способ выучить Python 3 еще глубже</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Эндрю Траск</t>
+          <t>Зед А. Шоу</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>806</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Объектно-ориентированное программирование с помощью Python</t>
+          <t>40 алгоритмов, которые должен знать каждый программист на Python</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ирв Кальб</t>
+          <t>Имран Ахмад</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1747</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>40 алгоритмов, которые должен знать каждый программист на Python</t>
+          <t>Объектно-ориентированное программирование с помощью Python</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Имран Ахмад</t>
+          <t>Ирв Кальб</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1747</t>
         </is>
       </c>
     </row>
@@ -1881,17 +1881,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Начинаем программировать на Python. 5-е издание</t>
+          <t>Основы искусственного интеллекта в примерах на Python. Самоучитель</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Тони Гэддис</t>
+          <t>Анатолий Постолит</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>1149</t>
         </is>
       </c>
     </row>
@@ -1915,24 +1915,24 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Black Hat Python: программирование для хакеров и пентестеров, 2-е изд</t>
+          <t>Начинаем программировать на Python. 5-е издание</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Джастин Зейтц</t>
+          <t>Тони Гэддис</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>2667</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HTML, CSS, SCRATCH, PYTHON. Моя первая книга по программированию</t>
+          <t>Простой Python. Современный стиль программирования</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1942,24 +1942,24 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>1563</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Практическая статистика для специалистов Data Science. 50+ важнейших понятий с использованием R и Python</t>
+          <t>Программирование на Python для начинающих</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Питер Брюс, Эндрю Брюс, Питер Гедек</t>
+          <t>Майк МакГрат</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>501</t>
         </is>
       </c>
     </row>
@@ -1976,58 +1976,58 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>737</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Простой Python. Современный стиль программирования</t>
+          <t>Глубокое обучение на Python</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Франсуа Шолле</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>1655</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Causal Inference на Python. Причинно-следственные связи в IT-разработке</t>
+          <t>Black Hat Python: программирование для хакеров и пентестеров, 2-е изд</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Матеуш Факур</t>
+          <t>Джастин Зейтц</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>1563</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Быстрый доступ. Python: советы, функции, подсказки. Шпаргалка-буклет для начинающих (215х285 мм, 6 полос компактного буклета в европодвесе)</t>
+          <t>HTML, CSS, SCRATCH, PYTHON. Моя первая книга по программированию</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Кирилл Успенский</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>763</t>
         </is>
       </c>
     </row>
@@ -2051,51 +2051,51 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Основы Python. Научитесь думать как программист</t>
+          <t>Практическая статистика для специалистов Data Science. 50+ важнейших понятий с использованием R и Python</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Аллен Б. Дауни</t>
+          <t>Питер Брюс, Эндрю Брюс, Питер Гедек</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>1195</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Изучаем программирование на Python</t>
+          <t>Основы Python. Научитесь думать как программист</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Пол Бэрри</t>
+          <t>Аллен Б. Дауни</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1471</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Основы искусственного интеллекта в примерах на Python. Самоучитель</t>
+          <t>Изучаем программирование на Python</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Анатолий Постолит</t>
+          <t>Пол Бэрри</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -2136,29 +2136,29 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Глубокое обучение на Python</t>
+          <t>Быстрый доступ. Python: советы, функции, подсказки. Шпаргалка-буклет для начинающих (215х285 мм, 6 полос компактного буклета в европодвесе)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Франсуа Шолле</t>
+          <t>Кирилл Успенский</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>219</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>"Непрактичный" Python: занимательные проекты для тех, кто хочет поумнеть</t>
+          <t>Django 3.0. Практика создания веб-сайтов на Python</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ли Воган</t>
+          <t>Владимир Дронов</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2170,7 +2170,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Django 3.0. Практика создания веб-сайтов на Python</t>
+          <t>Django 4. Практика создания веб-сайтов на Python</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2180,177 +2180,177 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1747</t>
+          <t>1931</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Основы Python. Научитесь думать как программист</t>
+          <t>Алгоритмы. С примерами на Python</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Аллен Б. Дауни</t>
+          <t>Джордж Хайнеман</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>1839</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Парсинг с помощью Python. Веб-скрапинг в действии. 3-е межд. изд.</t>
+          <t>Основы Python. Научитесь думать как программист</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Райан Митчелл</t>
+          <t>Аллен Б. Дауни</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>944</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Интерпретируемое машинное обучение на Python</t>
+          <t>Легкий способ выучить Python 3</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Серг Масис</t>
+          <t>Зед А. Шоу</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>708</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Алгоритмы. С примерами на Python</t>
+          <t>Надежный Python</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Джордж Хайнеман</t>
+          <t>Патрик Виафоре</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>1149</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Прогнозное моделирование в IBM SPSS Statistics, R и Python Метод деревьев решений и случайный лес</t>
+          <t>Практическая статистика для специалистов Data Science. 50+ важнейших понятий с использованием R и Python</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Артем Груздев</t>
+          <t>Питер Брюс, Эндрю Брюс, Питер Гедек</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>4047</t>
+          <t>767</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Black Hat Python: программирование для хакеров и пентестеров, 2-е изд</t>
+          <t>Парсинг с помощью Python. Веб-скрапинг в действии. 3-е межд. изд.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Джастин Зейтц</t>
+          <t>Райан Митчелл</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>2851</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Программирование на Python. Первые шаги</t>
+          <t>FastAPI: веб-разработка на Python</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Анастасия Щерба</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>2483</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Математические алгоритмы для программистов. 3D-графика, машинное обучение и моделирование на Python</t>
+          <t>Программирование на Python. Первые шаги</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Пол Орланд</t>
+          <t>Анастасия Щерба</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3219</t>
+          <t>1103</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Надежный Python</t>
+          <t>Как устроен Python. Гид для разработчиков, программистов и интересующихся</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Патрик Виафоре</t>
+          <t>Мэтт Харрисон</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>1103</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Django 4. Практика создания веб-сайтов на Python</t>
+          <t>Простой Python. Современный стиль программирования</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Владимир Дронов</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1003</t>
         </is>
       </c>
     </row>
@@ -2367,41 +2367,41 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>1747</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>FastAPI: веб-разработка на Python</t>
+          <t>Публикация пакетов Python. Тестирование, распространение и автоматизация проектов</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Д. Хиллард</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>1471</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Учим Python, делая крутые игры</t>
+          <t>Интерпретируемое машинное обучение на Python</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Эл Свейгарт</t>
+          <t>Серг Масис</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>2115</t>
         </is>
       </c>
     </row>
@@ -2425,85 +2425,85 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Легкий способ выучить Python 3</t>
+          <t>Программирование на Python с помощью GitHub Copilot и ChatGPT</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Зед А. Шоу</t>
+          <t>Даниэль Зингаро, Лео Портер</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>1839</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Простой Python. Современный стиль программирования</t>
+          <t>Мама, не отвлекай. Я Python учу!</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Игорь Лазаревский</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>1241</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Публикация пакетов Python. Тестирование, распространение и автоматизация проектов</t>
+          <t>Надежный Python</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Д. Хиллард</t>
+          <t>Патрик Виафоре</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>737</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Программирование на Python с помощью GitHub Copilot и ChatGPT</t>
+          <t>Black Hat Python: программирование для хакеров и пентестеров, 2-е изд</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Даниэль Зингаро, Лео Портер</t>
+          <t>Джастин Зейтц</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>1003</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Программирование. Python. C++. Часть 1. Учебное пособие</t>
+          <t>Учим Python, делая крутые игры</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Константин Поляков</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>737</t>
         </is>
       </c>
     </row>
@@ -2544,221 +2544,221 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Изучаем основы Python. Практический курс для дата-аналитиков</t>
+          <t>Поговорим на Python. Разработка ПО для начинающих</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Павел Меликов</t>
+          <t>Павел Анни</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4507</t>
+          <t>1747</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Поговорим на Python. Разработка ПО для начинающих</t>
+          <t>Практикум по математической статистике. Проверка гипотез с использованием Excel, MatCalc, R и Python</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Павел Анни</t>
+          <t>Владимир Глебов</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1747</t>
+          <t>367</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Практикум по математической статистике. Проверка гипотез с использованием Excel, MatCalc, R и Python</t>
+          <t>Twisted из первых рук. Событийное и асинхронное программирование на Python</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Владимир Глебов</t>
+          <t>Моше Задка</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>2115</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Twisted из первых рук. Событийное и асинхронное программирование на Python</t>
+          <t>Математические алгоритмы для программистов. 3D-графика, машинное обучение и моделирование на Python</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Моше Задка</t>
+          <t>Пол Орланд</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>3219</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Мама, не отвлекай. Я Python учу!</t>
+          <t>Raspberry Pi OS. Системное администрирование с systemd и Python</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Игорь Лазаревский</t>
+          <t>Роберт М. Корецкий</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>2851</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Raspberry Pi OS. Системное администрирование с systemd и Python</t>
+          <t>Объектно-ориентированный Python</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Роберт М. Корецкий</t>
+          <t>Стивен Ф. Лотт, Дасти Филлипс</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>3035</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Математика на Python. Часть I. Элементы линейной алгебры и аналитической геометрии. Учебно-методическое пособие</t>
+          <t>Алгоритмы Data Science и их практическая реализация на Python: учебное пособие</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Анна Балджы</t>
+          <t>Андрей Протодьяконов, Петр Пылов, Владимир Садовников</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>2759</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Алгоритмы Data Science и их практическая реализация на Python: учебное пособие</t>
+          <t>Высокопроизводительные Python-приложения. Практическое руководство по эффективному программированию</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Андрей Протодьяконов, Петр Пылов, Владимир Садовников</t>
+          <t>Миша Горелик</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>1180</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Паттерны разработки на Python: TDD, DDD и событийно-ориентированная архитектура</t>
+          <t>"Непрактичный" Python: занимательные проекты для тех, кто хочет поумнеть</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Гарри Персиваль</t>
+          <t>Ли Воган</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1121</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Надежный Python</t>
+          <t>Алгоритмы и структуры данных на Python</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Патрик Виафоре</t>
+          <t xml:space="preserve"> Cuantum Technologies</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>2851</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Программирование. Python. C++. Часть 2. Учебное пособие</t>
+          <t>Профессия: Python-разработчик</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Константин Поляков</t>
+          <t>А. Адонин</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1379</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Алгоритмы и структуры данных на Python</t>
+          <t>Путь Python. Черный пояс по разработке, масштабированию, тестированию и развертыванию</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cuantum Technologies</t>
+          <t>Джульен Данжу</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>1241</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Профессия: Python-разработчик</t>
+          <t>Изучаем основы Python. Практический курс для дата-аналитиков</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>А. Адонин</t>
+          <t>Павел Меликов</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>4507</t>
         </is>
       </c>
     </row>
@@ -2782,41 +2782,41 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Сетевое программирование на Python</t>
+          <t>Excel с Python и R: раскройте потенциал расширенной обработки и визуализации данных</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Джон Галбрейт</t>
+          <t>Дэвид Кун, Стивен Сандерсон</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>2851</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Программирование. Python. C++. Часть 3. Учебное пособие</t>
+          <t>Обработка данных на Python. Data Wrangling и  Data Quality</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Константин Поляков</t>
+          <t>Сьюзен Макгрегор</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1333</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Программирование. Python. C++. Часть 4. Учебное пособие</t>
+          <t>Программирование. Python. C++. Часть 2. Учебное пособие</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2833,153 +2833,153 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Квантовые вычисления на Python</t>
+          <t>Большая книга проектов Python</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Феликс Филиппов</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1003</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Объектно-ориентированный Python</t>
+          <t>Квантовые вычисления на Python</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Стивен Ф. Лотт, Дасти Филлипс</t>
+          <t>Феликс Филиппов</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>1655</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Рецепты Python. Коллекция лучших техник программирования</t>
+          <t>Сетевое программирование на Python</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Джон Галбрейт</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>1563</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Скраппинг веб-сайтов с помощью Python</t>
+          <t>Рецепты Python. Коллекция лучших техник программирования</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Райан Митчелл</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1747</t>
+          <t>2851</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Изучаем квантовые вычисления на Python и Q#</t>
+          <t>Скраппинг веб-сайтов с помощью Python</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Прикладное программное обеспечение</t>
+          <t>Райан Митчелл</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>1747</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Обработка данных на Python. Data Wrangling и  Data Quality</t>
+          <t>Глубокое обучение с подкреплением: теория и практика на языке Python</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Сьюзен Макгрегор</t>
+          <t>Лаура Грессер</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>2391</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Глубокое обучение с подкреплением: теория и практика на языке Python</t>
+          <t>Программирование. Python. C++. Часть 1. Учебное пособие</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Лаура Грессер</t>
+          <t>Константин Поляков</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2391</t>
+          <t>1011</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Машинное обучение с использованием Python. Сборник рецептов. 2-е изд.</t>
+          <t>Программирование. Python. C++. Часть 3. Учебное пособие</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Кайл Галлатин, Крис Элбон</t>
+          <t>Константин Поляков</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>1011</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Легкий способ выучить Python</t>
+          <t>Машинное обучение с использованием Python. Сборник рецептов. 2-е изд.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Зед А. Шоу</t>
+          <t>Кайл Галлатин, Крис Элбон</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>1563</t>
         </is>
       </c>
     </row>
@@ -3003,624 +3003,624 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Профессиональная разработка на Python</t>
+          <t>Программирование. Python. C++. Часть 4. Учебное пособие</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Константин Поляков</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>3863</t>
+          <t>1011</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Pyomo. Моделирование оптимизации на Python</t>
+          <t>Causal Inference на Python. Причинно-следственные связи в IT-разработке</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Майкл Л. Бинум, Габриэль А. Хакебейл, Уильям Э. Харт</t>
+          <t>Матеуш Факур</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>3495</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Excel с Python и R: раскройте потенциал расширенной обработки и визуализации данных</t>
+          <t>Профессиональная разработка на Python</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Дэвид Кун, Стивен Сандерсон</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>3863</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Профессиональная разработка на Python</t>
+          <t>Использование языка Python в теории вероятностей. Учебник</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Сергей Криволапов</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2478</t>
+          <t>1931</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Использование языка Python в теории вероятностей. Учебник</t>
+          <t>Легкий способ выучить Python 3 еще глубже</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Сергей Криволапов</t>
+          <t>Зед А. Шоу</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>708</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Легкий способ выучить Python 3 еще глубже</t>
+          <t>Профессиональная разработка на Python</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Зед А. Шоу</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>2478</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Программирование задач по финансовой математике на языке программирования Python: Учебное пособие</t>
+          <t>Прогнозное моделирование в IBM SPSS Statistics, R и Python Метод деревьев решений и случайный лес</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Виталий Богун</t>
+          <t>Артем Груздев</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>4047</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Django 2.1 Практика создания веб-сайтов на Python. Модели, контроллеры и шаблоны. Разграничение доступа. Аутентификация через социальные сети. Вывод миниатюр. Bootstrap. Captcha. Angular. Bbcode. Rest</t>
+          <t>Pyomo. Моделирование оптимизации на Python</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Владимир Дронов</t>
+          <t>Майкл Л. Бинум, Габриэль А. Хакебейл, Уильям Э. Харт</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>2483</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Разработка веб-приложений с использованием Flask на языке Python</t>
+          <t>Язык программирования Python. Учебное пособие</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Мигель Гринберг</t>
+          <t>Роман Жуков</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>1121</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Django 2.1 Практика создания веб-сайтов на Python. Модели, контроллеры и шаблоны. Разграничение доступа. Аутентификация через социальные сети. Вывод миниатюр. Bootstrap. Captcha. Angular. Bbcode. Rest</t>
+          <t>Обработка естественного языка. Python и spaCy на практике</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Владимир Дронов</t>
+          <t>Юрий Васильев</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>1471</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Квантовая химия и квантовые вычисления с примерами на Python</t>
+          <t>Изучаем Python. Программирование игр, визуализация данных, веб-приложения. 2-е изд.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ален Чанс, Кипер Шарки</t>
+          <t>Эрик Мэтиз</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>1471</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Задачи по дискретной математике с алгоритмами на Python</t>
+          <t>Django 2.1 Практика создания веб-сайтов на Python. Модели, контроллеры и шаблоны. Разграничение доступа. Аутентификация через социальные сети. Вывод миниатюр. Bootstrap. Captcha. Angular. Bbcode. Rest</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Сергей Борзунов, Сергей Кургалин</t>
+          <t>Владимир Дронов</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1471</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Научное программирование на Python</t>
+          <t>Язык программирования Python: практикум. Учебное пособие</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Кейси Хилл</t>
+          <t>Роман Жуков</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>1180</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Анализ поведенческих данных на R и Python</t>
+          <t>Изучаем квантовые вычисления на Python и Q#</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Флоран Бюиссон</t>
+          <t>Прикладное программное обеспечение</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>3495</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Экономика на Python. Учебник</t>
+          <t>Программирование задач по финансовой математике на языке программирования Python: Учебное пособие</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Марина Хрипунова</t>
+          <t>Виталий Богун</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1241</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Робототехника. Управление квадрокоптером: Квадрокоптер Tello. Программирование на языке Python. 8-11 классы.</t>
+          <t>Квантовая химия и квантовые вычисления с примерами на Python</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Денис Копосов</t>
+          <t>Ален Чанс, Кипер Шарки</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>3035</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Практикум по анализу данных на языках Python и R: Учебное пособие</t>
+          <t>Задачи по дискретной математике с алгоритмами на Python</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>О. Баюк, Мариам Исаева, Максим Самсонкин</t>
+          <t>Сергей Борзунов, Сергей Кургалин</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>1931</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Computer Science для программиста-самоучки. Все что нужно знать о структурах данных и алгоритмах</t>
+          <t>Научное программирование на Python</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Кори Альтхофф</t>
+          <t>Кейси Хилл</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>3311</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Python. Системный анализ данных, расчеты и моделирование. Подходит для решения математических, экономических и научных задач</t>
+          <t>Анализ поведенческих данных на R и Python</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Йоаким Сунднес</t>
+          <t>Флоран Бюиссон</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>3035</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Python. Экспресс-курс. 3-е изд.</t>
+          <t>Экономика на Python. Учебник</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Наоми Седер</t>
+          <t>Марина Хрипунова</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1379</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Python для сложных задач: наука о данных и машинное обучение</t>
+          <t>Основы Data Science и Big Data. Python и наука о данных</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Дж. Вандер Плас</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>1003</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Python для детей. Самоучитель по программированию</t>
+          <t>Разработка веб-приложений с использованием Flask на языке Python</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Джейсон Бриггс</t>
+          <t>Мигель Гринберг</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>1839</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Python. Великое программирование в Minecraft  .</t>
+          <t>Робототехника. Управление квадрокоптером: Квадрокоптер Tello. Программирование на языке Python. 8-11 классы.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Андрей Корягин</t>
+          <t>Денис Копосов</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>735</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Python. Великое программирование в Minecraft  .</t>
+          <t>Django 2.1 Практика создания веб-сайтов на Python. Модели, контроллеры и шаблоны. Разграничение доступа. Аутентификация через социальные сети. Вывод миниатюр. Bootstrap. Captcha. Angular. Bbcode. Rest</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Андрей Корягин</t>
+          <t>Владимир Дронов</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>944</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Python Создаем программы и игры</t>
+          <t>Легкий способ выучить Python</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Д. Кольцов</t>
+          <t>Зед А. Шоу</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>472</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Python, Django и PyCharm для начинающих</t>
+          <t>Практикум по анализу данных на языках Python и R: Учебное пособие</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Анатолий Постолит</t>
+          <t>О. Баюк, Мариам Исаева, Максим Самсонкин</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>643</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Python без проблем: решаем реальные задачи и пишем полезный код</t>
+          <t>Computer Science для программиста-самоучки. Все что нужно знать о структурах данных и алгоритмах</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Даниэль Зингаро</t>
+          <t>Кори Альтхофф</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>1333</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Python на примерах. Практический курс по программированию</t>
+          <t>Python. Системный анализ данных, расчеты и моделирование. Подходит для решения математических, экономических и научных задач</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>А.Н. Васильев</t>
+          <t>Йоаким Сунднес</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>845</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Python, Django и PyCharm для начинающих</t>
+          <t>Python. Экспресс-курс. 3-е изд.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Анатолий Постолит</t>
+          <t>Наоми Седер</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>1931</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Python 3 и PyQt 6. Разработка приложений</t>
+          <t>Python для сложных задач: наука о данных и машинное обучение</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Владимир Дронов, Николай Прохоренок</t>
+          <t>Дж. Вандер Плас</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>1839</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Python для детей и родителей</t>
+          <t>Python для детей. Самоучитель по программированию</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Михаил Райтман</t>
+          <t>Джейсон Бриггс</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1563</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Python на примерах. Практический курс по программированию, 2-е издание</t>
+          <t>Python. Великое программирование в Minecraft  .</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>А.Н. Васильев</t>
+          <t>Андрей Корягин</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>965</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Python 3. Самое необходимое</t>
+          <t>Python. Великое программирование в Minecraft  .</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Владимир Дронов, Николай Прохоренок</t>
+          <t>Андрей Корягин</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>619</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Python для аналитики данных. Практический курс</t>
+          <t>Python на примерах. Практический курс по программированию</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Павел Меликов</t>
+          <t>А.Н. Васильев</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>671</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Изучаем программирование на Python</t>
+          <t>Python Создаем программы и игры</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Пол Бэрри</t>
+          <t>Д. Кольцов</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>505</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Учим Python, делая крутые игры</t>
+          <t>Python, Django и PyCharm для начинающих</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Эл Свейгарт</t>
+          <t>Анатолий Постолит</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>1103</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Изучаем Python: программирование игр, визуализация данных, веб-приложения. 3-е изд.</t>
+          <t>Python без проблем: решаем реальные задачи и пишем полезный код</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Эрик Мэтиз</t>
+          <t>Даниэль Зингаро</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3632,199 +3632,199 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HTML, CSS, SCRATCH, PYTHON. Моя первая книга по программированию</t>
+          <t>Python 3 и PyQt 6. Разработка приложений</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Владимир Дронов, Николай Прохоренок</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>1298</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Большая книга проектов Python</t>
+          <t>Python для детей и родителей</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Эл Свейгарт</t>
+          <t>Михаил Райтман</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>1103</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Однострочники Python: лаконичный и содержательный код</t>
+          <t>Python. Книга Рецептов</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Кристиан Майер</t>
+          <t>Дэвид Бизли</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>3679</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Однострочники Python: лаконичный и содержательный код</t>
+          <t>Python на примерах. Практический курс по программированию, 2-е издание</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Кристиан Майер</t>
+          <t>А.Н. Васильев</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>919</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Машинное обучение с использованием Python. Сборник рецептов</t>
+          <t>Python 3. Самое необходимое</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Крис Элбон</t>
+          <t>Владимир Дронов, Николай Прохоренок</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>855</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Глубокое обучение с подкреплением на Python. OpenAI Gym и TensorFlow для профи</t>
+          <t>Python для аналитики данных. Практический курс</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Судхарсан Равичандиран</t>
+          <t>Павел Меликов</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>3679</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Легкий способ выучить Python</t>
+          <t>Изучаем программирование на Python</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Зед А. Шоу</t>
+          <t>Пол Бэрри</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>1931</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Структуры данных в Python. Начальный курс</t>
+          <t>Учим Python, делая крутые игры</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Дональд Р. Шихи</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>1149</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Путь Python. Черный пояс по разработке, масштабированию, тестированию и развертыванию</t>
+          <t>Изучаем Python: программирование игр, визуализация данных, веб-приложения. 3-е изд.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Джульен Данжу</t>
+          <t>Эрик Мэтиз</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1241</t>
+          <t>1563</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Начинаем программировать на Python. 4-е издание</t>
+          <t>HTML, CSS, SCRATCH, PYTHON. Моя первая книга по программированию</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Тони Гэддис</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>489</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Изучение робототехники с помощью Python</t>
+          <t>Большая книга проектов Python</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Джозеф Лентин</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2299</t>
+          <t>1563</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Python. Непрерывная интеграция и доставка</t>
+          <t>Однострочники Python: лаконичный и содержательный код</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Мориц Ленц</t>
+          <t>Кристиан Майер</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3836,12 +3836,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Машинное обучение с использованием Python. Сборник рецептов</t>
+          <t>Однострочники Python: лаконичный и содержательный код</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Крис Элбон</t>
+          <t>Кристиан Майер</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3853,653 +3853,653 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Биоинформатика с PYTHON. Книга рецептов</t>
+          <t>Машинное обучение с использованием Python. Сборник рецептов</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Тиаго Антао</t>
+          <t>Крис Элбон</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>1563</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Классические задачи Computer Science на языке Python</t>
+          <t>Математика на Python. Часть I. Элементы линейной алгебры и аналитической геометрии. Учебно-методическое пособие</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Дэвид Копец</t>
+          <t>Анна Балджы</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>551</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Разработка приложений с графическим пользовательским интерфейсом на языке Python. Учебное пособие для СПО.</t>
+          <t>Паттерны разработки на Python: TDD, DDD и событийно-ориентированная архитектура</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Сергей Букунов, Ольга Букунова</t>
+          <t>Гарри Персиваль</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>GPT-3: программирование на PYTHON в примерах</t>
+          <t>Глубокое обучение с подкреплением на Python. OpenAI Gym и TensorFlow для профи</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Эль Амри Аймен</t>
+          <t>Судхарсан Равичандиран</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>1471</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Начинаем программировать на Python. 4-е издание</t>
+          <t>Структуры данных в Python. Начальный курс</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Тони Гэддис</t>
+          <t>Дональд Р. Шихи</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1839</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Глубокое обучение: легкая разработка проектов на Python</t>
+          <t>Легкий способ выучить Python</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Сет Вейдман</t>
+          <t>Зед А. Шоу</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>735</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Вероятностное программирование на Python: байесовский вывод и алгоритмы</t>
+          <t>Изучение робототехники с помощью Python</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Кэмерон Дэвидсон-Пайлон</t>
+          <t>Джозеф Лентин</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>2299</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Django: практика создания Web-сайтов на Python</t>
+          <t>Начинаем программировать на Python. 4-е издание</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Владимир Дронов</t>
+          <t>Тони Гэддис</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>1239</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Грокаем алгоритмы. Иллюстрированное пособие для программистов и любопытствующих</t>
+          <t>Python. Непрерывная интеграция и доставка</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Адитья Бхаргава</t>
+          <t>Мориц Ленц</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1563</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Стержень гелевый "InColor Purple Python" синий, ErichKrause</t>
+          <t>Машинное обучение с использованием Python. Сборник рецептов</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Стержни для гелевых ручек</t>
+          <t>Крис Элбон</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1003</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Python для финансовых расчетов. Искусство работы с финансовыми данными</t>
+          <t>Биоинформатика с PYTHON. Книга рецептов</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Прикладное программное обеспечение</t>
+          <t>Тиаго Антао</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>6163</t>
+          <t>3311</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Python. К вершинам мастерства</t>
+          <t>Классические задачи Computer Science на языке Python</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Лучано Рамальо</t>
+          <t>Дэвид Копец</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>1333</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Python. Лучшие практики и инструменты</t>
+          <t>Разработка приложений с графическим пользовательским интерфейсом на языке Python. Учебное пособие для СПО.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Михал Яворски</t>
+          <t>Сергей Букунов, Ольга Букунова</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>809</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Python Справочник Полное описание языка (3 изд.) Мартелли</t>
+          <t>GPT-3: программирование на PYTHON в примерах</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Алекс Мартелли</t>
+          <t>Эль Амри Аймен</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>3127</t>
+          <t>2115</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Python: создание приложений. Библиотека профессионала, 3-е издание</t>
+          <t>Начинаем программировать на Python. 4-е издание</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Компьютерные сети. Интернет</t>
+          <t>Тони Гэддис</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>1931</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Python для детей</t>
+          <t>Вероятностное программирование на Python: байесовский вывод и алгоритмы</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ханс-Георг Шуманн</t>
+          <t>Кэмерон Дэвидсон-Пайлон</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>1839</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>PYTHON и анализ данных</t>
+          <t>Глубокое обучение: легкая разработка проектов на Python</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Уэс Маккинни</t>
+          <t>Сет Вейдман</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>3863</t>
+          <t>2667</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Python и наука о данных для чайников</t>
+          <t>Django: практика создания Web-сайтов на Python</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Владимир Дронов</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>855</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Python и анализ данных</t>
+          <t>Грокаем алгоритмы. Иллюстрированное пособие для программистов и любопытствующих</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Адитья Бхаргава</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1011</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Python для всех</t>
+          <t>Стержень гелевый "InColor Purple Python" синий, ErichKrause</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Чарльз Р. Северанс</t>
+          <t>Стержни для гелевых ручек</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Python: Искусственный интеллект, большие данные и облачные вычисления</t>
+          <t>Python для финансовых расчетов. Искусство работы с финансовыми данными</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Пол Дж. Дейтел</t>
+          <t>Прикладное программное обеспечение</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>3127</t>
+          <t>6163</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Python. Разработка на основе тестирования</t>
+          <t>Python. К вершинам мастерства</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Лучано Рамальо</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>3863</t>
+          <t>2483</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Python на практике</t>
+          <t>Python. Лучшие практики и инструменты</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Александр Киселев</t>
+          <t>Михал Яворски</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>2575</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Python и машинное обучение. Машинное и глубокое обучение с использованием Python, scikit-learn и TensorFlow</t>
+          <t>Python для детей</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Прикладное программное обеспечение</t>
+          <t>Ханс-Георг Шуманн</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>3127</t>
+          <t>2115</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Python и анализ данных. Первичная обработка данных с применением pandas, NumPy и Ipython</t>
+          <t>Python: создание приложений. Библиотека профессионала, 3-е издание</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Уэс Маккинни</t>
+          <t>Компьютерные сети. Интернет</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>2575</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Python и машинное обучение</t>
+          <t>Python Справочник Полное описание языка (3 изд.) Мартелли</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Себастьян Рашка</t>
+          <t>Алекс Мартелли</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>3771</t>
+          <t>3127</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Python. Самое необходимое /+ Видеокурс (на DVD)</t>
+          <t>PYTHON и анализ данных</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Николай Прохоренок</t>
+          <t>Уэс Маккинни</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>3863</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Python и машинное обучение</t>
+          <t>Python и наука о данных для чайников</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Себастьян Рашка</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>1931</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Python 3 и PyQt 5 Разработка приложений (м) Прохоренок</t>
+          <t>Python для всех</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Чарльз Р. Северанс</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1471</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Python для чайников</t>
+          <t>Python и анализ данных</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Джон Пол Мюллер</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>1655</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Python 3 и PyQt. Разработка приложений</t>
+          <t>Python. К вершинам мастерства. Локаничное и эффективное программирование</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Николай Прохоренок</t>
+          <t>Лучано Рамальо</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>5151</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Python для программирования криптовалют</t>
+          <t>Python. Разработка на основе тестирования</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Джимми Сонг</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>3127</t>
+          <t>3863</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Python для детей и родителей</t>
+          <t>Python на практике</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Михаил Райтман</t>
+          <t>Александр Киселев</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>6899</t>
+          <t>1655</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Python для детей. Курс для начинающих</t>
+          <t>Python и машинное обучение. Машинное и глубокое обучение с использованием Python, scikit-learn и TensorFlow</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Детские энциклопедии</t>
+          <t>Прикладное программное обеспечение</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3127</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Python. Наиболее полное руководство</t>
+          <t>Python и анализ данных. Первичная обработка данных с применением pandas, NumPy и Ipython</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Уэс Маккинни</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>2759</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Как устроен Python. Гид для разработчиков, программистов и интересующихся</t>
+          <t>Python: Искусственный интеллект, большие данные и облачные вычисления</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Мэтт Харрисон</t>
+          <t>Пол Дж. Дейтел</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>3127</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Стандартная библиотека Python 3: справочник с примерами, 2-е издание</t>
+          <t>Python и машинное обучение</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Даг Хеллман</t>
+          <t>Себастьян Рашка</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>4415</t>
+          <t>3771</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Автостопом по Python</t>
+          <t>Python и машинное обучение</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Кеннет Ритц, Таня Шлюссер</t>
+          <t>Себастьян Рашка</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>3311</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Построение систем машинного обучения на языке Python</t>
+          <t>Python 3 и PyQt 5 Разработка приложений (м) Прохоренок</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4509,789 +4509,789 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>1195</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Программирование на Python. Иллюстрированное руководство для детей</t>
+          <t>Python. Самое необходимое /+ Видеокурс (на DVD)</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Кэрол Вордерман</t>
+          <t>Николай Прохоренок</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>551</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Алгебра и геометрия с примерами на Python. Учебное пособие для вузов</t>
+          <t>Python для чайников</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Математика. Научные издания</t>
+          <t>Джон Пол Мюллер</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>4507</t>
+          <t>1563</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Предварительная подготовка данных в PYTHON. Том 1. Инструменты и валидация</t>
+          <t>Python для программирования криптовалют</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Артем Груздев</t>
+          <t>Джимми Сонг</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>4783</t>
+          <t>3127</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Байесовский анализ на Python. Введение в статистическое моделирование и вероятностное программирование с использованием PyMC3 и ArviZ</t>
+          <t>Python для детей и родителей</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Освальдо Мартин</t>
+          <t>Михаил Райтман</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>6899</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Простой Python для опытных программистов</t>
+          <t>Python 3 и PyQt. Разработка приложений</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Рик Гаско</t>
+          <t>Николай Прохоренок</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>965</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Прикладной анализ текстовых данных на Python. Машинное обучение и создание приложений обработки естественного языка</t>
+          <t>Python. Наиболее полное руководство</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Бенджамин Бенгфорт, Ребекка Билбро, Тони Охеда</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>339</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Трехмерное глубокое обучение на PYTHON</t>
+          <t>Python для детей. Курс для начинающих</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Лилит Йольан, Ксудонг Ма, Вишах Хегде</t>
+          <t>Детские энциклопедии</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Введение в машинное обучение с помощью Python. Руководство для специалистов по работе с данными</t>
+          <t>Стандартная библиотека Python 3: справочник с примерами, 2-е издание</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Андреас Мюллер</t>
+          <t>Даг Хеллман</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>3771</t>
+          <t>4415</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Глубокое обучение и TensorFlow для профессионалов. Математический подход к построению систем искусственного интеллекта на Python</t>
+          <t>Автостопом по Python</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Кеннет Ритц, Таня Шлюссер</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1195</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Предварительная подготовка данных в PYTHON. Том 2. План, примеры и метрики качества</t>
+          <t>Построение систем машинного обучения на языке Python</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Артем Груздев</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>4783</t>
+          <t>1471</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Введение в статистическое обучение с примерами на Python</t>
+          <t>Программирование на Python. Иллюстрированное руководство для детей</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Кэрол Вордерман</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>6583</t>
+          <t>1839</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>100 баллов по информатике. Решаем задачи ЕГЭ на языке Python | Поляков Константин Юрьевич</t>
+          <t>Предварительная подготовка данных в PYTHON. Том 1. Инструменты и валидация</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Информатика 10 класс задачники</t>
+          <t>Артем Груздев</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4783</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Изучаем Python. Том 2</t>
+          <t>Байесовский анализ на Python. Введение в статистическое моделирование и вероятностное программирование с использованием PyMC3 и ArviZ</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Марк Лутц</t>
+          <t>Освальдо Мартин</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>3127</t>
+          <t>2483</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Анализ социальных медиа на Python</t>
+          <t>Простой Python для опытных программистов</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Марко Бонцанини</t>
+          <t>Рик Гаско</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2299</t>
+          <t>1195</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Программирование на Python 3. Подробное руководство</t>
+          <t>Алгебра и геометрия с примерами на Python. Учебное пособие для вузов</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Математика. Научные издания</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>4507</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>PYCHARM: профессиональная работа на PYTHON</t>
+          <t>Прикладной анализ текстовых данных на Python. Машинное обучение и создание приложений обработки естественного языка</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Куан Нгуен</t>
+          <t>Бенджамин Бенгфорт, Ребекка Билбро, Тони Охеда</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>4047</t>
+          <t>1379</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Изучаем Python. Том 1</t>
+          <t>Трехмерное глубокое обучение на PYTHON</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Марк Лутц</t>
+          <t>Лилит Йольан, Ксудонг Ма, Вишах Хегде</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>3127</t>
+          <t>2667</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Программирование на языке Python: учебный курс</t>
+          <t>Введение в машинное обучение с помощью Python. Руководство для специалистов по работе с данными</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Роберт Седжвик</t>
+          <t>Андреас Мюллер</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>3771</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Основы программирования на языке Python</t>
+          <t>Предварительная подготовка данных в PYTHON. Том 2. План, примеры и метрики качества</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Дмитрий Златопольский</t>
+          <t>Артем Груздев</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>4783</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Криптография и взлом шифров на Python</t>
+          <t>Введение в статистическое обучение с примерами на Python</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Эл Свейгарт</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>6583</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Программирование на Python: базовый курс</t>
+          <t>100 баллов по информатике. Решаем задачи ЕГЭ на языке Python | Поляков Константин Юрьевич</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Информатика 10 класс задачники</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Программирование GPU при помощи Python и CUDA</t>
+          <t>Глубокое обучение и TensorFlow для профессионалов. Математический подход к построению систем искусственного интеллекта на Python</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Бриан Тоуманнен</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>1931</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Аналитика в Power BI с помощью R и Python</t>
+          <t>Изучаем Python. Том 2</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Розалин Уэйд</t>
+          <t>Марк Лутц</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>3403</t>
+          <t>3127</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Эволюционные нейросети на языке Python</t>
+          <t>Программирование на Python 3. Подробное руководство</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ярослав Омельяненко</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>1655</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Генетические алгоритмы на Python. Применение генетических алгоритмов к решению задач глубокого обучения и искуственного интеллекта</t>
+          <t>PYCHARM: профессиональная работа на PYTHON</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Эйял Вирсански</t>
+          <t>Куан Нгуен</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>4047</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Разработка приложений с графическим пользовательским интерфейсом на языке Python. Учебное пособие для вузов</t>
+          <t>Изучаем Python. Том 1</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Сергей Букунов, Ольга Букунова</t>
+          <t>Марк Лутц</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>3127</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Объяснимые модели искусственного интеллекта на Python</t>
+          <t>Программирование на языке Python: учебный курс</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Прадипта Мишра</t>
+          <t>Роберт Седжвик</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>2575</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Автоматизация рутинных задач с помощью Python: практическое руководство для начинающих</t>
+          <t>Анализ социальных медиа на Python</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Эл Свейгарт</t>
+          <t>Марко Бонцанини</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>2299</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Цифровая обработка сигналов на языке Python (м) Дауни</t>
+          <t>Криптография и взлом шифров на Python</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Аллен Б. Дауни</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1931</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Графика на PYTHON. Создание 2D- и 3D-изображений для научной графики и презентаций</t>
+          <t>Программирование на Python: базовый курс</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Прикладное программное обеспечение</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>1931</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Сверхбыстрый Python. Эффективные техники для работы с большими наборами данных</t>
+          <t>Программирование GPU при помощи Python и CUDA</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Тиаго Антао</t>
+          <t>Бриан Тоуманнен</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>2115</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Язык программирования Python: практикум. Учебное пособие</t>
+          <t>Аналитика в Power BI с помощью R и Python</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Роман Жуков</t>
+          <t>Розалин Уэйд</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>3403</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Изучаем Python. Программирование игр, визуализация данных, веб-приложения. 2-е изд.</t>
+          <t>Основы программирования на языке Python</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Эрик Мэтиз</t>
+          <t>Дмитрий Златопольский</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>1287</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Обработка естественного языка. Python и spaCy на практике</t>
+          <t>Объяснимые модели искусственного интеллекта на Python</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Юрий Васильев</t>
+          <t>Прадипта Мишра</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>2667</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Устройство и программирование автономных роботов. Проекты на PYTHON и RASPBERRY PI</t>
+          <t>Цифровая обработка сигналов на языке Python (м) Дауни</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Дэнни Стейпл</t>
+          <t>Аллен Б. Дауни</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>1379</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Алгоритмы обучения с подкреплением на Python. Описание и разработка алгоритмов искусственного интелекта</t>
+          <t>Графика на PYTHON. Создание 2D- и 3D-изображений для научной графики и презентаций</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Андреа Лонца</t>
+          <t>Прикладное программное обеспечение</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>3035</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Секреты Python Pro</t>
+          <t>Автоматизация рутинных задач с помощью Python: практическое руководство для начинающих</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Д. Хиллард</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2207</t>
+          <t>1931</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Крупномасштабное машинное обучение вместе с Python</t>
+          <t>Сверхбыстрый Python. Эффективные техники для работы с большими наборами данных</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Альберто Боскетти, Лука Массарон, Бастиан Шарден</t>
+          <t>Тиаго Антао</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2299</t>
+          <t>3679</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Автоматизация рутинных задач с помощью Python. Практическое руководство для начинающих. 2-е издание</t>
+          <t>Язык программирования Python: практикум. Учебное пособие</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Эл Свейгарт</t>
+          <t>Роман Жуков</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>1839</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Язык программирования Python. Учебное пособие</t>
+          <t>Эволюционные нейросети на языке Python</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Роман Жуков</t>
+          <t>Ярослав Омельяненко</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>1747</t>
+          <t>2483</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Современный скрапинг веб-сайтов с помощью Python. 2-е межд. издание</t>
+          <t>Разработка приложений с графическим пользовательским интерфейсом на языке Python. Учебное пособие для вузов</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Райан Митчелл</t>
+          <t>Сергей Букунов, Ольга Букунова</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>901</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Безопасность веб-приложений на Python</t>
+          <t>Генетические алгоритмы на Python. Применение генетических алгоритмов к решению задач глубокого обучения и искуственного интеллекта</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Деннис Бирн</t>
+          <t>Эйял Вирсански</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2667</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Решение трудных и увлекательных задач на Python</t>
+          <t>Безопасность веб-приложений на Python</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Рашид Бехзадидуст, Хабиб Изадха</t>
+          <t>Деннис Бирн</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>3035</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Вычислительная математика на смартфонах, коммуникаторах и ноутбуках с использованием программных сред Python: Учебное пособие.</t>
+          <t>Решение трудных и увлекательных задач на Python</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Игорь Соловьев</t>
+          <t>Рашид Бехзадидуст, Хабиб Изадха</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2115</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Minecraft. Программируй свой мир на Python. 2-е межд. изд.</t>
+          <t>Вычислительная математика на смартфонах, коммуникаторах и ноутбуках с использованием программных сред Python: Учебное пособие.</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Дэвид Вэйл, Мартин О'Хэнлон</t>
+          <t>Игорь Соловьев</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>809</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Алгоритмы. Справочник с примерами на C, C++, Java и Python, 2-е издание</t>
+          <t>Minecraft. Программируй свой мир на Python. 2-е межд. изд.</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Гэри Поллис, Стэнли Селков, Джордж Хайнеманн</t>
+          <t>Дэвид Вэйл, Мартин О'Хэнлон</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>1057</t>
         </is>
       </c>
     </row>
@@ -5332,170 +5332,170 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Asyncio и конкурентное программирование на Python</t>
+          <t>Алгоритмы. Справочник с примерами на C, C++, Java и Python, 2-е издание</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Мэттью Фаулер</t>
+          <t>Гэри Поллис, Стэнли Селков, Джордж Хайнеманн</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>2575</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Практическое введение в решение дифференциальных уравнений в Python</t>
+          <t>Asyncio и конкурентное программирование на Python</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Николай Ершов</t>
+          <t>Мэттью Фаулер</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>2115</t>
+          <t>3495</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Разработка геоприложений на языке Python</t>
+          <t>Практическое введение в решение дифференциальных уравнений в Python</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Эрик Вестра</t>
+          <t>Николай Ершов</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2299</t>
+          <t>2115</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Программирование для детей на языке Python</t>
+          <t>Устройство и программирование автономных роботов. Проекты на PYTHON и RASPBERRY PI</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Александр Банкрашков</t>
+          <t>Дэнни Стейпл</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>2667</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Основы Data Science и Big Data. Python и наука о данных</t>
+          <t>Секреты Python Pro</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Д. Хиллард</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>2207</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Секреты Python: 59 рекомендаций по написанию эффективного кода</t>
+          <t>Автоматизация рутинных задач с помощью Python. Практическое руководство для начинающих. 2-е издание</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>А.Г. Гузикевич, Бретт Слаткин</t>
+          <t>Эл Свейгарт</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>2575</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Основы алгоритмизации и программирования на Python</t>
+          <t>Алгоритмы обучения с подкреплением на Python. Описание и разработка алгоритмов искусственного интелекта</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Сергей Гуриков</t>
+          <t>Андреа Лонца</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>2483</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Информатика. 8-9 классы. Начала программирования на языке Python. Дополнительные главы к учебникам</t>
+          <t>Современный скрапинг веб-сайтов с помощью Python. 2-е межд. издание</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Людмила Босова</t>
+          <t>Райан Митчелл</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>2115</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Алгоритмы на графах. Использование языка Python</t>
+          <t>Крупномасштабное машинное обучение вместе с Python</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Олег Мельников</t>
+          <t>Альберто Боскетти, Лука Массарон, Бастиан Шарден</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>2299</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Программируем с Minecraft. Создай свой мир с помощью Python</t>
+          <t>Язык программирования Python. Учебное пособие</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Крейг Ричардсон</t>
+          <t>Роман Жуков</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>1747</t>
         </is>
       </c>
     </row>
@@ -5519,63 +5519,63 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Изучение сложных систем с помощью Python</t>
+          <t>Программирование для детей на языке Python</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Аллен Б. Дауни</t>
+          <t>Александр Банкрашков</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>597</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Программирование на языке высокого уровня Python. Учебное пособие для СПО</t>
+          <t>Изучение сложных систем с помощью Python</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Дмитрий Федоров</t>
+          <t>Аллен Б. Дауни</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>1563</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Прикладное машинное обучение без учителя с использованием Python</t>
+          <t>Программирование на языке высокого уровня Python. Учебное пособие для СПО</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Дмитрий Федоров</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>717</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Учимся программировать с примерами на Python</t>
+          <t>Прикладное машинное обучение без учителя с использованием Python</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Элизабет Фримен, Эрик Фримен</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5587,24 +5587,24 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Программирование компьютерного зрения на Python</t>
+          <t>Учимся программировать с примерами на Python</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ян Солем</t>
+          <t>Элизабет Фримен, Эрик Фримен</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>2575</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Программируем на Python в Minecraft</t>
+          <t>Программирование компьютерного зрения на Python</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5614,138 +5614,138 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>1839</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Обучение с подкреплением на PyTorch: сборник рецептов. Свыше 60 рецептов проектирования, разработки и развертывания самообучающихся моделей на Python</t>
+          <t>Информатика. 8-9 классы. Начала программирования на языке Python. Дополнительные главы к учебникам</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Юси Лю</t>
+          <t>Людмила Босова</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>551</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Web-программирование на Python. Учебное пособие для вузов, 2-е изд., стер.</t>
+          <t>Алгоритмы на графах. Использование языка Python</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Олег Мельников</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>855</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Машинное обучение: карманный справочник. Краткое руководство по методам структурированного машинного обучения на Python</t>
+          <t>Основы алгоритмизации и программирования на Python</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Мэтт Харрисон</t>
+          <t>Сергей Гуриков</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>3495</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Искусственный интеллект и компьютерное зрение. Реальные проекты на Python, Keras и TensorFlow</t>
+          <t>Основы Data Science и Big Data. Python и наука о данных</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Анирад Коул, Казам Мехер, Ганджу Сиддха</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>1563</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Изучаем Python: Т. 1, 2. (комплект из 2-х книг)</t>
+          <t>Программируем с Minecraft. Создай свой мир с помощью Python</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Крейг Ричардсон</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1287</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Изучаем Python. Том 2</t>
+          <t>Разработка геоприложений на языке Python</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Языки и среды программирования</t>
+          <t>Эрик Вестра</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2299</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>GPT-3: программирование на PYTHON в примерах</t>
+          <t>Секреты Python: 59 рекомендаций по написанию эффективного кода</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Эль Амри Аймен</t>
+          <t>А.Г. Гузикевич, Бретт Слаткин</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2632</t>
+          <t>1563</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Безопасность веб-приложений на PYTHON</t>
+          <t>Web-программирование на Python. Учебное пособие для вузов, 2-е изд., стер.</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Деннис Бирн</t>
+          <t>Языки и среды программирования</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5757,15 +5757,151 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
+          <t>Машинное обучение: карманный справочник. Краткое руководство по методам структурированного машинного обучения на Python</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Мэтт Харрисон</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Искусственный интеллект и компьютерное зрение. Реальные проекты на Python, Keras и TensorFlow</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Анирад Коул, Казам Мехер, Ганджу Сиддха</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Изучаем Python: Т. 1, 2. (комплект из 2-х книг)</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Языки и среды программирования</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Изучаем Python. Том 2</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Языки и среды программирования</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>GPT-3: программирование на PYTHON в примерах</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Эль Амри Аймен</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>2632</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Безопасность веб-приложений на PYTHON</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Деннис Бирн</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Программируем на Python в Minecraft</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Деннис Бирн</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Обучение с подкреплением на PyTorch: сборник рецептов. Свыше 60 рецептов проектирования, разработки и развертывания самообучающихся моделей на Python</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Юси Лю</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>2483</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
           <t>Язык Python и его применение (учебное пособие) (Основы Информационных Технологий). Сузи Р. (Бином</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr">
+      <c r="B322" t="inlineStr">
         <is>
           <t>Языки и среды программирования</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr">
+      <c r="C322" t="inlineStr">
         <is>
           <t>441</t>
         </is>
